--- a/cs696_scraping/structured/revenue clean data/2018_revenue_clean.xlsx
+++ b/cs696_scraping/structured/revenue clean data/2018_revenue_clean.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kajal\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Umass spring 20\696\KT\CS696\cs696_scraping\structured\revenue clean data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DA1149E-3120-4EA8-BD90-6B16A82E9024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BFDF39-7F7F-43F1-BF83-0948821BC3A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AEB3969C-8F01-4148-A956-291901493361}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
   <si>
     <t>year</t>
   </si>
@@ -83,9 +83,6 @@
     <t>IBM</t>
   </si>
   <si>
-    <t>COST</t>
-  </si>
-  <si>
     <t>UNP</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>BIIB</t>
   </si>
   <si>
-    <t>GPN</t>
-  </si>
-  <si>
     <t>ITW</t>
   </si>
   <si>
@@ -203,9 +197,6 @@
     <t>OKE</t>
   </si>
   <si>
-    <t>STZ</t>
-  </si>
-  <si>
     <t>JCI</t>
   </si>
   <si>
@@ -275,9 +266,6 @@
     <t>LYB</t>
   </si>
   <si>
-    <t>KR</t>
-  </si>
-  <si>
     <t>HSY</t>
   </si>
   <si>
@@ -410,9 +398,6 @@
     <t>MRO</t>
   </si>
   <si>
-    <t>RPM</t>
-  </si>
-  <si>
     <t>GWRE</t>
   </si>
   <si>
@@ -461,9 +446,6 @@
     <t>RNR</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>AIZ</t>
   </si>
   <si>
@@ -497,12 +479,6 @@
     <t>RS</t>
   </si>
   <si>
-    <t>QGEN</t>
-  </si>
-  <si>
-    <t>GNTX</t>
-  </si>
-  <si>
     <t>LPLA</t>
   </si>
   <si>
@@ -518,9 +494,6 @@
     <t>FLIR</t>
   </si>
   <si>
-    <t>KSS</t>
-  </si>
-  <si>
     <t>BEN</t>
   </si>
   <si>
@@ -584,12 +557,6 @@
     <t>NUAN</t>
   </si>
   <si>
-    <t>PEN</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
     <t>EPR</t>
   </si>
   <si>
@@ -608,12 +575,6 @@
     <t>HBI</t>
   </si>
   <si>
-    <t>LSI</t>
-  </si>
-  <si>
-    <t>SRC</t>
-  </si>
-  <si>
     <t>HE</t>
   </si>
   <si>
@@ -698,9 +659,6 @@
     <t>GRA</t>
   </si>
   <si>
-    <t>CHH</t>
-  </si>
-  <si>
     <t>CFX</t>
   </si>
   <si>
@@ -773,9 +731,6 @@
     <t>BGCP</t>
   </si>
   <si>
-    <t>PAG</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -812,9 +767,6 @@
     <t>AIG</t>
   </si>
   <si>
-    <t>SRE</t>
-  </si>
-  <si>
     <t>DD</t>
   </si>
   <si>
@@ -842,12 +794,6 @@
     <t>CINF</t>
   </si>
   <si>
-    <t>CAG</t>
-  </si>
-  <si>
-    <t>ULTA</t>
-  </si>
-  <si>
     <t>LBRDK</t>
   </si>
   <si>
@@ -863,9 +809,6 @@
     <t>FOXA</t>
   </si>
   <si>
-    <t>OKTA</t>
-  </si>
-  <si>
     <t>HAS</t>
   </si>
   <si>
@@ -887,9 +830,6 @@
     <t>BFAM</t>
   </si>
   <si>
-    <t>ZEN</t>
-  </si>
-  <si>
     <t>GLPI</t>
   </si>
   <si>
@@ -974,9 +914,6 @@
     <t>CVNA</t>
   </si>
   <si>
-    <t>CIM</t>
-  </si>
-  <si>
     <t>EQC</t>
   </si>
   <si>
@@ -986,22 +923,13 @@
     <t>WRI</t>
   </si>
   <si>
-    <t>WTM</t>
-  </si>
-  <si>
     <t>MIC</t>
   </si>
   <si>
-    <t>CPA</t>
-  </si>
-  <si>
     <t>COLM</t>
   </si>
   <si>
     <t>BDN</t>
-  </si>
-  <si>
-    <t>HGV</t>
   </si>
   <si>
     <t>KAR</t>
@@ -1058,7 +986,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1368,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04A5339-ED55-4C51-9D76-3E4C006F38B6}">
-  <dimension ref="A1:D325"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="T306" sqref="T306"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A290" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1479,7 +1418,7 @@
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C8">
         <v>21344</v>
@@ -1535,7 +1474,7 @@
         <v>2018</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C12">
         <v>104169</v>
@@ -1549,7 +1488,7 @@
         <v>2018</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C13">
         <v>1613103</v>
@@ -1608,10 +1547,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>909832</v>
+        <v>100885</v>
       </c>
       <c r="D17">
-        <v>79591000000</v>
+        <v>22832000000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1622,10 +1561,10 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>100885</v>
+        <v>59478</v>
       </c>
       <c r="D18">
-        <v>22832000000</v>
+        <v>24555700000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1636,10 +1575,10 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>59478</v>
+        <v>1318605</v>
       </c>
       <c r="D19">
-        <v>24555700000</v>
+        <v>21461268000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1650,10 +1589,10 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>1318605</v>
+        <v>804328</v>
       </c>
       <c r="D20">
-        <v>21461268000</v>
+        <v>22732000000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1664,10 +1603,10 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>804328</v>
+        <v>1053507</v>
       </c>
       <c r="D21">
-        <v>22732000000</v>
+        <v>7440100000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1678,10 +1617,10 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>1053507</v>
+        <v>64803</v>
       </c>
       <c r="D22">
-        <v>7440100000</v>
+        <v>194579000000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1689,13 +1628,13 @@
         <v>2018</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="C23">
-        <v>64803</v>
+        <v>1091667</v>
       </c>
       <c r="D23">
-        <v>194579000000</v>
+        <v>11231000000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1703,13 +1642,13 @@
         <v>2018</v>
       </c>
       <c r="B24" t="s">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>1091667</v>
+        <v>10795</v>
       </c>
       <c r="D24">
-        <v>11231000000</v>
+        <v>15983000000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1720,10 +1659,10 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>10795</v>
+        <v>701221</v>
       </c>
       <c r="D25">
-        <v>15983000000</v>
+        <v>41616000000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1734,10 +1673,10 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>701221</v>
+        <v>1156375</v>
       </c>
       <c r="D26">
-        <v>41616000000</v>
+        <v>4309400000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1748,10 +1687,10 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1156375</v>
+        <v>109198</v>
       </c>
       <c r="D27">
-        <v>4309400000</v>
+        <v>35864664000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1762,10 +1701,10 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>109198</v>
+        <v>1156039</v>
       </c>
       <c r="D28">
-        <v>35864664000</v>
+        <v>92105000000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1776,10 +1715,10 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1156039</v>
+        <v>896878</v>
       </c>
       <c r="D29">
-        <v>92105000000</v>
+        <v>5964000000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1790,10 +1729,10 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>896878</v>
+        <v>715957</v>
       </c>
       <c r="D30">
-        <v>5964000000</v>
+        <v>13366000000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1804,10 +1743,10 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>715957</v>
+        <v>798354</v>
       </c>
       <c r="D31">
-        <v>13366000000</v>
+        <v>5823000000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1815,13 +1754,13 @@
         <v>2018</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="C32">
-        <v>798354</v>
+        <v>1045609</v>
       </c>
       <c r="D32">
-        <v>5823000000</v>
+        <v>2804449000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1829,13 +1768,13 @@
         <v>2018</v>
       </c>
       <c r="B33" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C33">
-        <v>1045609</v>
+        <v>1555280</v>
       </c>
       <c r="D33">
-        <v>2804449000</v>
+        <v>5825000000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1843,13 +1782,13 @@
         <v>2018</v>
       </c>
       <c r="B34" t="s">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>1555280</v>
+        <v>1047122</v>
       </c>
       <c r="D34">
-        <v>5825000000</v>
+        <v>27058000000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1860,10 +1799,10 @@
         <v>31</v>
       </c>
       <c r="C35">
-        <v>1047122</v>
+        <v>723125</v>
       </c>
       <c r="D35">
-        <v>27058000000</v>
+        <v>30391000000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1874,10 +1813,10 @@
         <v>32</v>
       </c>
       <c r="C36">
-        <v>723125</v>
+        <v>875045</v>
       </c>
       <c r="D36">
-        <v>30391000000</v>
+        <v>13452900000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1888,10 +1827,10 @@
         <v>33</v>
       </c>
       <c r="C37">
-        <v>875045</v>
+        <v>49826</v>
       </c>
       <c r="D37">
-        <v>13452900000</v>
+        <v>14768000000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1902,10 +1841,10 @@
         <v>34</v>
       </c>
       <c r="C38">
-        <v>1123360</v>
+        <v>885725</v>
       </c>
       <c r="D38">
-        <v>13452900000</v>
+        <v>9048000000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1916,10 +1855,10 @@
         <v>35</v>
       </c>
       <c r="C39">
-        <v>49826</v>
+        <v>6951</v>
       </c>
       <c r="D39">
-        <v>14768000000</v>
+        <v>17253000000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1930,10 +1869,10 @@
         <v>36</v>
       </c>
       <c r="C40">
-        <v>885725</v>
+        <v>316709</v>
       </c>
       <c r="D40">
-        <v>9048000000</v>
+        <v>10132000000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1944,10 +1883,10 @@
         <v>37</v>
       </c>
       <c r="C41">
-        <v>6951</v>
+        <v>315293</v>
       </c>
       <c r="D41">
-        <v>17253000000</v>
+        <v>2770000000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1958,10 +1897,10 @@
         <v>38</v>
       </c>
       <c r="C42">
-        <v>316709</v>
+        <v>1101239</v>
       </c>
       <c r="D42">
-        <v>10132000000</v>
+        <v>5071654000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1972,10 +1911,10 @@
         <v>39</v>
       </c>
       <c r="C43">
-        <v>315293</v>
+        <v>4904</v>
       </c>
       <c r="D43">
-        <v>2770000000</v>
+        <v>16195700000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1986,10 +1925,10 @@
         <v>40</v>
       </c>
       <c r="C44">
-        <v>1101239</v>
+        <v>49071</v>
       </c>
       <c r="D44">
-        <v>5071654000</v>
+        <v>14168000000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -2000,10 +1939,10 @@
         <v>41</v>
       </c>
       <c r="C45">
-        <v>4904</v>
+        <v>707549</v>
       </c>
       <c r="D45">
-        <v>16195700000</v>
+        <v>11076998000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -2011,13 +1950,13 @@
         <v>2018</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="C46">
-        <v>49071</v>
+        <v>5272</v>
       </c>
       <c r="D46">
-        <v>14168000000</v>
+        <v>47389000000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -2025,13 +1964,13 @@
         <v>2018</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47">
-        <v>707549</v>
+        <v>6281</v>
       </c>
       <c r="D47">
-        <v>11076998000</v>
+        <v>6200942000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -2039,13 +1978,13 @@
         <v>2018</v>
       </c>
       <c r="B48" t="s">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="C48">
-        <v>5272</v>
+        <v>1506307</v>
       </c>
       <c r="D48">
-        <v>47389000000</v>
+        <v>14144000000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -2053,13 +1992,13 @@
         <v>2018</v>
       </c>
       <c r="B49" t="s">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>1032208</v>
+        <v>1048286</v>
       </c>
       <c r="D49">
-        <v>47389000000</v>
+        <v>5289000000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -2067,13 +2006,13 @@
         <v>2018</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50">
-        <v>6281</v>
+        <v>899051</v>
       </c>
       <c r="D50">
-        <v>6200942000</v>
+        <v>39815000000</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -2081,13 +2020,13 @@
         <v>2018</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="C51">
-        <v>1506307</v>
+        <v>30554</v>
       </c>
       <c r="D51">
-        <v>14144000000</v>
+        <v>7053000000</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -2098,10 +2037,10 @@
         <v>46</v>
       </c>
       <c r="C52">
-        <v>1048286</v>
+        <v>1099219</v>
       </c>
       <c r="D52">
-        <v>5289000000</v>
+        <v>67941000000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -2112,10 +2051,10 @@
         <v>47</v>
       </c>
       <c r="C53">
-        <v>899051</v>
+        <v>1137774</v>
       </c>
       <c r="D53">
-        <v>39815000000</v>
+        <v>62992000000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -2123,13 +2062,13 @@
         <v>2018</v>
       </c>
       <c r="B54" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="C54">
-        <v>30554</v>
+        <v>1071739</v>
       </c>
       <c r="D54">
-        <v>7053000000</v>
+        <v>60116000000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -2137,13 +2076,13 @@
         <v>2018</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C55">
-        <v>1099219</v>
+        <v>72903</v>
       </c>
       <c r="D55">
-        <v>67941000000</v>
+        <v>11537000000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -2151,13 +2090,13 @@
         <v>2018</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C56">
-        <v>1137774</v>
+        <v>1058290</v>
       </c>
       <c r="D56">
-        <v>62992000000</v>
+        <v>16125000000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -2165,13 +2104,13 @@
         <v>2018</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C57">
-        <v>1071739</v>
+        <v>1041061</v>
       </c>
       <c r="D57">
-        <v>60116000000</v>
+        <v>1558000000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -2179,13 +2118,13 @@
         <v>2018</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>245</v>
       </c>
       <c r="C58">
-        <v>72903</v>
+        <v>1598014</v>
       </c>
       <c r="D58">
-        <v>11537000000</v>
+        <v>4009200000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -2196,10 +2135,10 @@
         <v>52</v>
       </c>
       <c r="C59">
-        <v>1058290</v>
+        <v>712515</v>
       </c>
       <c r="D59">
-        <v>16125000000</v>
+        <v>5150000000</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -2210,10 +2149,10 @@
         <v>53</v>
       </c>
       <c r="C60">
-        <v>1041061</v>
+        <v>1039684</v>
       </c>
       <c r="D60">
-        <v>1558000000</v>
+        <v>12593196000</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -2221,13 +2160,13 @@
         <v>2018</v>
       </c>
       <c r="B61" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="C61">
-        <v>1598014</v>
+        <v>833444</v>
       </c>
       <c r="D61">
-        <v>4009200000</v>
+        <v>31400000000</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -2235,13 +2174,13 @@
         <v>2018</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C62">
-        <v>712515</v>
+        <v>1260221</v>
       </c>
       <c r="D62">
-        <v>5150000000</v>
+        <v>3811126000</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -2249,13 +2188,13 @@
         <v>2018</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C63">
-        <v>1039684</v>
+        <v>906107</v>
       </c>
       <c r="D63">
-        <v>12593196000</v>
+        <v>2578434000</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -2263,13 +2202,13 @@
         <v>2018</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64">
-        <v>16918</v>
+        <v>788784</v>
       </c>
       <c r="D64">
-        <v>12593196000</v>
+        <v>9696000000</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -2277,13 +2216,13 @@
         <v>2018</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C65">
-        <v>833444</v>
+        <v>72741</v>
       </c>
       <c r="D65">
-        <v>31400000000</v>
+        <v>8448201000</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -2291,13 +2230,13 @@
         <v>2018</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66">
-        <v>1260221</v>
+        <v>1034054</v>
       </c>
       <c r="D66">
-        <v>3811126000</v>
+        <v>1865695000</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -2305,13 +2244,13 @@
         <v>2018</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67">
-        <v>906107</v>
+        <v>927653</v>
       </c>
       <c r="D67">
-        <v>2578434000</v>
+        <v>208357000000</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -2319,13 +2258,13 @@
         <v>2018</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68">
-        <v>788784</v>
+        <v>319201</v>
       </c>
       <c r="D68">
-        <v>9696000000</v>
+        <v>4036701000</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -2333,13 +2272,13 @@
         <v>2018</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C69">
-        <v>72741</v>
+        <v>827052</v>
       </c>
       <c r="D69">
-        <v>8448201000</v>
+        <v>12657000000</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -2347,13 +2286,13 @@
         <v>2018</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="C70">
-        <v>1034054</v>
+        <v>1512673</v>
       </c>
       <c r="D70">
-        <v>1865695000</v>
+        <v>3298177000</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -2364,10 +2303,10 @@
         <v>63</v>
       </c>
       <c r="C71">
-        <v>927653</v>
+        <v>75362</v>
       </c>
       <c r="D71">
-        <v>208357000000</v>
+        <v>23495700000</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -2375,13 +2314,13 @@
         <v>2018</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="C72">
-        <v>319201</v>
+        <v>922224</v>
       </c>
       <c r="D72">
-        <v>4036701000</v>
+        <v>7785000000</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -2389,13 +2328,13 @@
         <v>2018</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73">
-        <v>827052</v>
+        <v>866787</v>
       </c>
       <c r="D73">
-        <v>12657000000</v>
+        <v>11221077000</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -2403,13 +2342,13 @@
         <v>2018</v>
       </c>
       <c r="B74" t="s">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c r="C74">
-        <v>1512673</v>
+        <v>93556</v>
       </c>
       <c r="D74">
-        <v>3298177000</v>
+        <v>13982400000</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -2420,10 +2359,10 @@
         <v>66</v>
       </c>
       <c r="C75">
-        <v>75362</v>
+        <v>1418091</v>
       </c>
       <c r="D75">
-        <v>23495700000</v>
+        <v>3042359000</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2431,13 +2370,13 @@
         <v>2018</v>
       </c>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="C76">
-        <v>922224</v>
+        <v>827054</v>
       </c>
       <c r="D76">
-        <v>7785000000</v>
+        <v>3980800000</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -2445,13 +2384,13 @@
         <v>2018</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C77">
-        <v>866787</v>
+        <v>26172</v>
       </c>
       <c r="D77">
-        <v>11221077000</v>
+        <v>23771000000</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -2459,13 +2398,13 @@
         <v>2018</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C78">
-        <v>93556</v>
+        <v>804753</v>
       </c>
       <c r="D78">
-        <v>13982400000</v>
+        <v>5366325000</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -2473,13 +2412,13 @@
         <v>2018</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C79">
-        <v>1418091</v>
+        <v>100493</v>
       </c>
       <c r="D79">
-        <v>3042359000</v>
+        <v>40052000000</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -2487,13 +2426,13 @@
         <v>2018</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C80">
-        <v>827054</v>
+        <v>1013462</v>
       </c>
       <c r="D80">
-        <v>3980800000</v>
+        <v>1293636000</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -2501,13 +2440,13 @@
         <v>2018</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>248</v>
       </c>
       <c r="C81">
-        <v>26172</v>
+        <v>1038357</v>
       </c>
       <c r="D81">
-        <v>23771000000</v>
+        <v>9415000000</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2518,10 +2457,10 @@
         <v>72</v>
       </c>
       <c r="C82">
-        <v>804753</v>
+        <v>1300514</v>
       </c>
       <c r="D82">
-        <v>5366325000</v>
+        <v>13729000000</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -2532,10 +2471,10 @@
         <v>73</v>
       </c>
       <c r="C83">
-        <v>100493</v>
+        <v>883241</v>
       </c>
       <c r="D83">
-        <v>40052000000</v>
+        <v>3121058000</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -2543,13 +2482,13 @@
         <v>2018</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="C84">
-        <v>1013462</v>
+        <v>1327567</v>
       </c>
       <c r="D84">
-        <v>1293636000</v>
+        <v>658100000</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -2557,13 +2496,13 @@
         <v>2018</v>
       </c>
       <c r="B85" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="C85">
-        <v>1038357</v>
+        <v>743988</v>
       </c>
       <c r="D85">
-        <v>9415000000</v>
+        <v>2539004000</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -2574,10 +2513,10 @@
         <v>75</v>
       </c>
       <c r="C86">
-        <v>1300514</v>
+        <v>1037540</v>
       </c>
       <c r="D86">
-        <v>13729000000</v>
+        <v>2717076000</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -2588,10 +2527,10 @@
         <v>76</v>
       </c>
       <c r="C87">
-        <v>883241</v>
+        <v>1489393</v>
       </c>
       <c r="D87">
-        <v>3121058000</v>
+        <v>39004000000</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -2599,13 +2538,13 @@
         <v>2018</v>
       </c>
       <c r="B88" t="s">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="C88">
-        <v>1327567</v>
+        <v>47111</v>
       </c>
       <c r="D88">
-        <v>658100000</v>
+        <v>1987902000</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -2613,13 +2552,13 @@
         <v>2018</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C89">
-        <v>743988</v>
+        <v>740260</v>
       </c>
       <c r="D89">
-        <v>2539004000</v>
+        <v>923263000</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -2627,13 +2566,13 @@
         <v>2018</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C90">
-        <v>1037540</v>
+        <v>874766</v>
       </c>
       <c r="D90">
-        <v>2717076000</v>
+        <v>18955000000</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -2641,13 +2580,13 @@
         <v>2018</v>
       </c>
       <c r="B91" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="C91">
-        <v>1489393</v>
+        <v>21076</v>
       </c>
       <c r="D91">
-        <v>39004000000</v>
+        <v>6124000000</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -2658,10 +2597,10 @@
         <v>80</v>
       </c>
       <c r="C92">
-        <v>56873</v>
+        <v>900075</v>
       </c>
       <c r="D92">
-        <v>39004000000</v>
+        <v>1805695000</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -2672,10 +2611,10 @@
         <v>81</v>
       </c>
       <c r="C93">
-        <v>47111</v>
+        <v>811156</v>
       </c>
       <c r="D93">
-        <v>1987902000</v>
+        <v>6873000000</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -2686,10 +2625,10 @@
         <v>82</v>
       </c>
       <c r="C94">
-        <v>740260</v>
+        <v>1037646</v>
       </c>
       <c r="D94">
-        <v>923263000</v>
+        <v>2935586000</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -2697,13 +2636,13 @@
         <v>2018</v>
       </c>
       <c r="B95" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="C95">
-        <v>874766</v>
+        <v>831259</v>
       </c>
       <c r="D95">
-        <v>18955000000</v>
+        <v>3684000000</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -2711,13 +2650,13 @@
         <v>2018</v>
       </c>
       <c r="B96" t="s">
-        <v>266</v>
+        <v>83</v>
       </c>
       <c r="C96">
-        <v>21076</v>
+        <v>920148</v>
       </c>
       <c r="D96">
-        <v>6124000000</v>
+        <v>11333400000</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -2728,10 +2667,10 @@
         <v>84</v>
       </c>
       <c r="C97">
-        <v>900075</v>
+        <v>947484</v>
       </c>
       <c r="D97">
-        <v>1805695000</v>
+        <v>5450568000</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -2742,10 +2681,10 @@
         <v>85</v>
       </c>
       <c r="C98">
-        <v>811156</v>
+        <v>711404</v>
       </c>
       <c r="D98">
-        <v>6873000000</v>
+        <v>2532800000</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -2756,10 +2695,10 @@
         <v>86</v>
       </c>
       <c r="C99">
-        <v>1037646</v>
+        <v>1262039</v>
       </c>
       <c r="D99">
-        <v>2935586000</v>
+        <v>1801200000</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -2767,13 +2706,13 @@
         <v>2018</v>
       </c>
       <c r="B100" t="s">
-        <v>267</v>
+        <v>87</v>
       </c>
       <c r="C100">
-        <v>831259</v>
+        <v>54480</v>
       </c>
       <c r="D100">
-        <v>3684000000</v>
+        <v>2714000000</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -2781,13 +2720,13 @@
         <v>2018</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C101">
-        <v>920148</v>
+        <v>1687229</v>
       </c>
       <c r="D101">
-        <v>11333400000</v>
+        <v>1722962000</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -2795,13 +2734,13 @@
         <v>2018</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C102">
-        <v>947484</v>
+        <v>29989</v>
       </c>
       <c r="D102">
-        <v>5450568000</v>
+        <v>15290200000</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -2809,13 +2748,13 @@
         <v>2018</v>
       </c>
       <c r="B103" t="s">
-        <v>89</v>
+        <v>252</v>
       </c>
       <c r="C103">
-        <v>711404</v>
+        <v>20286</v>
       </c>
       <c r="D103">
-        <v>2532800000</v>
+        <v>5407000000</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -2826,10 +2765,10 @@
         <v>90</v>
       </c>
       <c r="C104">
-        <v>1262039</v>
+        <v>912595</v>
       </c>
       <c r="D104">
-        <v>1801200000</v>
+        <v>1571346000</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -2840,10 +2779,10 @@
         <v>91</v>
       </c>
       <c r="C105">
-        <v>54480</v>
+        <v>18926</v>
       </c>
       <c r="D105">
-        <v>2714000000</v>
+        <v>23443000000</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -2854,10 +2793,10 @@
         <v>92</v>
       </c>
       <c r="C106">
-        <v>1687229</v>
+        <v>1126328</v>
       </c>
       <c r="D106">
-        <v>1722962000</v>
+        <v>3770600000</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -2868,10 +2807,10 @@
         <v>93</v>
       </c>
       <c r="C107">
-        <v>29989</v>
+        <v>1579298</v>
       </c>
       <c r="D107">
-        <v>15290200000</v>
+        <v>6668479000</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -2879,13 +2818,13 @@
         <v>2018</v>
       </c>
       <c r="B108" t="s">
-        <v>268</v>
+        <v>94</v>
       </c>
       <c r="C108">
-        <v>20286</v>
+        <v>1022079</v>
       </c>
       <c r="D108">
-        <v>5407000000</v>
+        <v>7531000000</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -2893,13 +2832,13 @@
         <v>2018</v>
       </c>
       <c r="B109" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C109">
-        <v>912595</v>
+        <v>859737</v>
       </c>
       <c r="D109">
-        <v>1571346000</v>
+        <v>3217900000</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -2907,13 +2846,13 @@
         <v>2018</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>96</v>
       </c>
       <c r="C110">
-        <v>23217</v>
+        <v>912593</v>
       </c>
       <c r="D110">
-        <v>1571346000</v>
+        <v>1126825000</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -2921,13 +2860,13 @@
         <v>2018</v>
       </c>
       <c r="B111" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C111">
-        <v>18926</v>
+        <v>1025378</v>
       </c>
       <c r="D111">
-        <v>23443000000</v>
+        <v>885732000</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -2935,13 +2874,13 @@
         <v>2018</v>
       </c>
       <c r="B112" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C112">
-        <v>1403568</v>
+        <v>1611983</v>
       </c>
       <c r="D112">
-        <v>23443000000</v>
+        <v>22256000</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -2949,13 +2888,13 @@
         <v>2018</v>
       </c>
       <c r="B113" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C113">
-        <v>1126328</v>
+        <v>352541</v>
       </c>
       <c r="D113">
-        <v>3770600000</v>
+        <v>3534500000</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -2963,13 +2902,13 @@
         <v>2018</v>
       </c>
       <c r="B114" t="s">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="C114">
-        <v>1579298</v>
+        <v>74208</v>
       </c>
       <c r="D114">
-        <v>6668479000</v>
+        <v>1046859000</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -2977,13 +2916,13 @@
         <v>2018</v>
       </c>
       <c r="B115" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C115">
-        <v>1022079</v>
+        <v>1140859</v>
       </c>
       <c r="D115">
-        <v>7531000000</v>
+        <v>167939635000</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -2991,13 +2930,13 @@
         <v>2018</v>
       </c>
       <c r="B116" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C116">
-        <v>859737</v>
+        <v>1002047</v>
       </c>
       <c r="D116">
-        <v>3217900000</v>
+        <v>5911000000</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -3005,13 +2944,13 @@
         <v>2018</v>
       </c>
       <c r="B117" t="s">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="C117">
-        <v>912593</v>
+        <v>874761</v>
       </c>
       <c r="D117">
-        <v>1126825000</v>
+        <v>10736000000</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -3022,10 +2961,10 @@
         <v>101</v>
       </c>
       <c r="C118">
-        <v>1025378</v>
+        <v>3570</v>
       </c>
       <c r="D118">
-        <v>885732000</v>
+        <v>5601000000</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -3033,13 +2972,13 @@
         <v>2018</v>
       </c>
       <c r="B119" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C119">
-        <v>1611983</v>
+        <v>1289490</v>
       </c>
       <c r="D119">
-        <v>22256000</v>
+        <v>1196604000</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -3047,13 +2986,13 @@
         <v>2018</v>
       </c>
       <c r="B120" t="s">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="C120">
-        <v>352541</v>
+        <v>1308161</v>
       </c>
       <c r="D120">
-        <v>3534500000</v>
+        <v>30400000000</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -3061,13 +3000,13 @@
         <v>2018</v>
       </c>
       <c r="B121" t="s">
-        <v>272</v>
+        <v>102</v>
       </c>
       <c r="C121">
-        <v>74208</v>
+        <v>946581</v>
       </c>
       <c r="D121">
-        <v>1046859000</v>
+        <v>1792892000</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -3078,10 +3017,10 @@
         <v>103</v>
       </c>
       <c r="C122">
-        <v>1140859</v>
+        <v>879169</v>
       </c>
       <c r="D122">
-        <v>167939635000</v>
+        <v>1881883000</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -3092,10 +3031,10 @@
         <v>104</v>
       </c>
       <c r="C123">
-        <v>1002047</v>
+        <v>783280</v>
       </c>
       <c r="D123">
-        <v>5911000000</v>
+        <v>947870000</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -3103,13 +3042,13 @@
         <v>2018</v>
       </c>
       <c r="B124" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C124">
-        <v>874761</v>
+        <v>46080</v>
       </c>
       <c r="D124">
-        <v>10736000000</v>
+        <v>4579646000</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -3120,10 +3059,10 @@
         <v>105</v>
       </c>
       <c r="C125">
-        <v>3570</v>
+        <v>1174922</v>
       </c>
       <c r="D125">
-        <v>5601000000</v>
+        <v>6717660000</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -3131,13 +3070,13 @@
         <v>2018</v>
       </c>
       <c r="B126" t="s">
-        <v>274</v>
+        <v>106</v>
       </c>
       <c r="C126">
-        <v>1289490</v>
+        <v>1604778</v>
       </c>
       <c r="D126">
-        <v>1196604000</v>
+        <v>665383000</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -3145,13 +3084,13 @@
         <v>2018</v>
       </c>
       <c r="B127" t="s">
-        <v>275</v>
+        <v>107</v>
       </c>
       <c r="C127">
-        <v>1308161</v>
+        <v>832101</v>
       </c>
       <c r="D127">
-        <v>30400000000</v>
+        <v>2483666000</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -3159,13 +3098,13 @@
         <v>2018</v>
       </c>
       <c r="B128" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C128">
-        <v>1660134</v>
+        <v>1624899</v>
       </c>
       <c r="D128">
-        <v>30400000000</v>
+        <v>2619996000</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -3173,13 +3112,13 @@
         <v>2018</v>
       </c>
       <c r="B129" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C129">
-        <v>946581</v>
+        <v>779152</v>
       </c>
       <c r="D129">
-        <v>1792892000</v>
+        <v>417229000</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -3187,13 +3126,13 @@
         <v>2018</v>
       </c>
       <c r="B130" t="s">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="C130">
-        <v>879169</v>
+        <v>906163</v>
       </c>
       <c r="D130">
-        <v>1881883000</v>
+        <v>7163674000</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -3201,13 +3140,13 @@
         <v>2018</v>
       </c>
       <c r="B131" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="C131">
-        <v>783280</v>
+        <v>1623613</v>
       </c>
       <c r="D131">
-        <v>947870000</v>
+        <v>11433900000</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -3215,13 +3154,13 @@
         <v>2018</v>
       </c>
       <c r="B132" t="s">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c r="C132">
-        <v>46080</v>
+        <v>217346</v>
       </c>
       <c r="D132">
-        <v>4579646000</v>
+        <v>13972000000</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -3229,13 +3168,13 @@
         <v>2018</v>
       </c>
       <c r="B133" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C133">
-        <v>1174922</v>
+        <v>1067701</v>
       </c>
       <c r="D133">
-        <v>6717660000</v>
+        <v>2306000000</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -3243,13 +3182,13 @@
         <v>2018</v>
       </c>
       <c r="B134" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C134">
-        <v>1604778</v>
+        <v>1286681</v>
       </c>
       <c r="D134">
-        <v>665383000</v>
+        <v>3432867000</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -3257,13 +3196,13 @@
         <v>2018</v>
       </c>
       <c r="B135" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C135">
-        <v>832101</v>
+        <v>764622</v>
       </c>
       <c r="D135">
-        <v>2483666000</v>
+        <v>3691247000</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -3271,13 +3210,13 @@
         <v>2018</v>
       </c>
       <c r="B136" t="s">
-        <v>278</v>
+        <v>113</v>
       </c>
       <c r="C136">
-        <v>1624899</v>
+        <v>11544</v>
       </c>
       <c r="D136">
-        <v>2619996000</v>
+        <v>7691651000</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -3285,13 +3224,13 @@
         <v>2018</v>
       </c>
       <c r="B137" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C137">
-        <v>779152</v>
+        <v>79282</v>
       </c>
       <c r="D137">
-        <v>417229000</v>
+        <v>2014246000</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -3299,13 +3238,13 @@
         <v>2018</v>
       </c>
       <c r="B138" t="s">
-        <v>279</v>
+        <v>115</v>
       </c>
       <c r="C138">
-        <v>906163</v>
+        <v>1013237</v>
       </c>
       <c r="D138">
-        <v>7163674000</v>
+        <v>1350145000</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -3313,13 +3252,13 @@
         <v>2018</v>
       </c>
       <c r="B139" t="s">
-        <v>280</v>
+        <v>116</v>
       </c>
       <c r="C139">
-        <v>1623613</v>
+        <v>910606</v>
       </c>
       <c r="D139">
-        <v>11433900000</v>
+        <v>1120975000</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -3327,13 +3266,13 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="C140">
-        <v>217346</v>
+        <v>1000228</v>
       </c>
       <c r="D140">
-        <v>13972000000</v>
+        <v>13201995000</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -3341,13 +3280,13 @@
         <v>2018</v>
       </c>
       <c r="B141" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C141">
-        <v>1067701</v>
+        <v>1219601</v>
       </c>
       <c r="D141">
-        <v>2306000000</v>
+        <v>2734000000</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -3355,13 +3294,13 @@
         <v>2018</v>
       </c>
       <c r="B142" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C142">
-        <v>1286681</v>
+        <v>72331</v>
       </c>
       <c r="D142">
-        <v>3432867000</v>
+        <v>2254668000</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -3369,13 +3308,13 @@
         <v>2018</v>
       </c>
       <c r="B143" t="s">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="C143">
-        <v>764622</v>
+        <v>24545</v>
       </c>
       <c r="D143">
-        <v>3691247000</v>
+        <v>13338000000</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -3383,13 +3322,13 @@
         <v>2018</v>
       </c>
       <c r="B144" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C144">
-        <v>11544</v>
+        <v>1519751</v>
       </c>
       <c r="D144">
-        <v>7691651000</v>
+        <v>5485100000</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -3397,13 +3336,13 @@
         <v>2018</v>
       </c>
       <c r="B145" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C145">
-        <v>79282</v>
+        <v>101778</v>
       </c>
       <c r="D145">
-        <v>2014246000</v>
+        <v>6582000000</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -3411,13 +3350,13 @@
         <v>2018</v>
       </c>
       <c r="B146" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C146">
-        <v>1013237</v>
+        <v>1528396</v>
       </c>
       <c r="D146">
-        <v>1350145000</v>
+        <v>661067000</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -3425,13 +3364,13 @@
         <v>2018</v>
       </c>
       <c r="B147" t="s">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="C147">
-        <v>910606</v>
+        <v>1437578</v>
       </c>
       <c r="D147">
-        <v>1120975000</v>
+        <v>1903182000</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -3439,13 +3378,13 @@
         <v>2018</v>
       </c>
       <c r="B148" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C148">
-        <v>1000228</v>
+        <v>1575965</v>
       </c>
       <c r="D148">
-        <v>13201995000</v>
+        <v>303317000</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -3453,13 +3392,13 @@
         <v>2018</v>
       </c>
       <c r="B149" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="C149">
-        <v>1219601</v>
+        <v>812011</v>
       </c>
       <c r="D149">
-        <v>2734000000</v>
+        <v>2011553000</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -3470,10 +3409,10 @@
         <v>122</v>
       </c>
       <c r="C150">
-        <v>72331</v>
+        <v>1013871</v>
       </c>
       <c r="D150">
-        <v>2254668000</v>
+        <v>9478000000</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -3481,13 +3420,13 @@
         <v>2018</v>
       </c>
       <c r="B151" t="s">
-        <v>282</v>
+        <v>123</v>
       </c>
       <c r="C151">
-        <v>24545</v>
+        <v>1309108</v>
       </c>
       <c r="D151">
-        <v>13338000000</v>
+        <v>386617000</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -3495,13 +3434,13 @@
         <v>2018</v>
       </c>
       <c r="B152" t="s">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="C152">
-        <v>1519751</v>
+        <v>898174</v>
       </c>
       <c r="D152">
-        <v>5485100000</v>
+        <v>12875664000</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -3509,13 +3448,13 @@
         <v>2018</v>
       </c>
       <c r="B153" t="s">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="C153">
-        <v>101778</v>
+        <v>888491</v>
       </c>
       <c r="D153">
-        <v>6582000000</v>
+        <v>881682000</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -3523,13 +3462,13 @@
         <v>2018</v>
       </c>
       <c r="B154" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C154">
-        <v>110621</v>
+        <v>915913</v>
       </c>
       <c r="D154">
-        <v>6582000000</v>
+        <v>3374950000</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -3537,13 +3476,13 @@
         <v>2018</v>
       </c>
       <c r="B155" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C155">
-        <v>1528396</v>
+        <v>1021635</v>
       </c>
       <c r="D155">
-        <v>661067000</v>
+        <v>2270300000</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -3551,13 +3490,13 @@
         <v>2018</v>
       </c>
       <c r="B156" t="s">
-        <v>283</v>
+        <v>126</v>
       </c>
       <c r="C156">
-        <v>1437578</v>
+        <v>1335258</v>
       </c>
       <c r="D156">
-        <v>1903182000</v>
+        <v>10787800000</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -3565,13 +3504,13 @@
         <v>2018</v>
       </c>
       <c r="B157" t="s">
-        <v>284</v>
+        <v>127</v>
       </c>
       <c r="C157">
-        <v>1463172</v>
+        <v>51644</v>
       </c>
       <c r="D157">
-        <v>1903182000</v>
+        <v>2856000000</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -3579,13 +3518,13 @@
         <v>2018</v>
       </c>
       <c r="B158" t="s">
-        <v>285</v>
+        <v>128</v>
       </c>
       <c r="C158">
-        <v>1575965</v>
+        <v>857005</v>
       </c>
       <c r="D158">
-        <v>303317000</v>
+        <v>1241824000</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -3593,13 +3532,13 @@
         <v>2018</v>
       </c>
       <c r="B159" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C159">
-        <v>812011</v>
+        <v>1025996</v>
       </c>
       <c r="D159">
-        <v>2011553000</v>
+        <v>747298000</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -3607,13 +3546,13 @@
         <v>2018</v>
       </c>
       <c r="B160" t="s">
-        <v>127</v>
+        <v>270</v>
       </c>
       <c r="C160">
-        <v>1013871</v>
+        <v>1688568</v>
       </c>
       <c r="D160">
-        <v>9478000000</v>
+        <v>24556000000</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -3621,13 +3560,13 @@
         <v>2018</v>
       </c>
       <c r="B161" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C161">
-        <v>1309108</v>
+        <v>350894</v>
       </c>
       <c r="D161">
-        <v>386617000</v>
+        <v>1624167000</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -3635,13 +3574,13 @@
         <v>2018</v>
       </c>
       <c r="B162" t="s">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="C162">
-        <v>898174</v>
+        <v>884614</v>
       </c>
       <c r="D162">
-        <v>12875664000</v>
+        <v>1273100000</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -3649,13 +3588,13 @@
         <v>2018</v>
       </c>
       <c r="B163" t="s">
-        <v>288</v>
+        <v>131</v>
       </c>
       <c r="C163">
-        <v>888491</v>
+        <v>929940</v>
       </c>
       <c r="D163">
-        <v>881682000</v>
+        <v>499514000</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -3663,13 +3602,13 @@
         <v>2018</v>
       </c>
       <c r="B164" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C164">
-        <v>915913</v>
+        <v>1596783</v>
       </c>
       <c r="D164">
-        <v>3374950000</v>
+        <v>2463400000</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -3677,13 +3616,13 @@
         <v>2018</v>
       </c>
       <c r="B165" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C165">
-        <v>1021635</v>
+        <v>945841</v>
       </c>
       <c r="D165">
-        <v>2270300000</v>
+        <v>2998097000</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -3691,13 +3630,13 @@
         <v>2018</v>
       </c>
       <c r="B166" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C166">
-        <v>1335258</v>
+        <v>1069202</v>
       </c>
       <c r="D166">
-        <v>10787800000</v>
+        <v>3883900000</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -3705,13 +3644,13 @@
         <v>2018</v>
       </c>
       <c r="B167" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C167">
-        <v>51644</v>
+        <v>815094</v>
       </c>
       <c r="D167">
-        <v>2856000000</v>
+        <v>593749000</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -3719,13 +3658,13 @@
         <v>2018</v>
       </c>
       <c r="B168" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C168">
-        <v>857005</v>
+        <v>913144</v>
       </c>
       <c r="D168">
-        <v>1241824000</v>
+        <v>547997000</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -3733,13 +3672,13 @@
         <v>2018</v>
       </c>
       <c r="B169" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C169">
-        <v>1025996</v>
+        <v>1166003</v>
       </c>
       <c r="D169">
-        <v>747298000</v>
+        <v>17279000000</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -3747,13 +3686,13 @@
         <v>2018</v>
       </c>
       <c r="B170" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C170">
-        <v>1688568</v>
+        <v>1538990</v>
       </c>
       <c r="D170">
-        <v>24556000000</v>
+        <v>540756000</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -3761,13 +3700,13 @@
         <v>2018</v>
       </c>
       <c r="B171" t="s">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="C171">
-        <v>350894</v>
+        <v>1535929</v>
       </c>
       <c r="D171">
-        <v>1624167000</v>
+        <v>8514000000</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -3775,13 +3714,13 @@
         <v>2018</v>
       </c>
       <c r="B172" t="s">
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="C172">
-        <v>884614</v>
+        <v>1702780</v>
       </c>
       <c r="D172">
-        <v>1273100000</v>
+        <v>9566608000</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -3789,13 +3728,13 @@
         <v>2018</v>
       </c>
       <c r="B173" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C173">
-        <v>929940</v>
+        <v>1267238</v>
       </c>
       <c r="D173">
-        <v>499514000</v>
+        <v>8057600000</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -3803,13 +3742,13 @@
         <v>2018</v>
       </c>
       <c r="B174" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C174">
-        <v>1596783</v>
+        <v>1042046</v>
       </c>
       <c r="D174">
-        <v>2463400000</v>
+        <v>7150000000</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -3817,13 +3756,13 @@
         <v>2018</v>
       </c>
       <c r="B175" t="s">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c r="C175">
-        <v>945841</v>
+        <v>927066</v>
       </c>
       <c r="D175">
-        <v>2998097000</v>
+        <v>11404851000</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -3834,10 +3773,10 @@
         <v>139</v>
       </c>
       <c r="C176">
-        <v>1069202</v>
+        <v>1179929</v>
       </c>
       <c r="D176">
-        <v>3883900000</v>
+        <v>18890000000</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -3848,10 +3787,10 @@
         <v>140</v>
       </c>
       <c r="C177">
-        <v>815094</v>
+        <v>766421</v>
       </c>
       <c r="D177">
-        <v>593749000</v>
+        <v>8264000000</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -3862,10 +3801,10 @@
         <v>141</v>
       </c>
       <c r="C178">
-        <v>913144</v>
+        <v>1029199</v>
       </c>
       <c r="D178">
-        <v>547997000</v>
+        <v>649385000</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -3873,13 +3812,13 @@
         <v>2018</v>
       </c>
       <c r="B179" t="s">
-        <v>291</v>
+        <v>142</v>
       </c>
       <c r="C179">
-        <v>1166003</v>
+        <v>879101</v>
       </c>
       <c r="D179">
-        <v>17279000000</v>
+        <v>1164762000</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -3887,13 +3826,13 @@
         <v>2018</v>
       </c>
       <c r="B180" t="s">
-        <v>292</v>
+        <v>143</v>
       </c>
       <c r="C180">
-        <v>1538990</v>
+        <v>12208</v>
       </c>
       <c r="D180">
-        <v>540756000</v>
+        <v>2160153000</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -3901,13 +3840,13 @@
         <v>2018</v>
       </c>
       <c r="B181" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="C181">
-        <v>1535929</v>
+        <v>1608249</v>
       </c>
       <c r="D181">
-        <v>8514000000</v>
+        <v>2604000000</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -3915,13 +3854,13 @@
         <v>2018</v>
       </c>
       <c r="B182" t="s">
-        <v>294</v>
+        <v>144</v>
       </c>
       <c r="C182">
-        <v>1702780</v>
+        <v>922864</v>
       </c>
       <c r="D182">
-        <v>9566608000</v>
+        <v>972410000</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -3929,13 +3868,13 @@
         <v>2018</v>
       </c>
       <c r="B183" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C183">
-        <v>1398659</v>
+        <v>1116132</v>
       </c>
       <c r="D183">
-        <v>9566608000</v>
+        <v>5880000000</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
@@ -3943,13 +3882,13 @@
         <v>2018</v>
       </c>
       <c r="B184" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C184">
-        <v>1267238</v>
+        <v>1005284</v>
       </c>
       <c r="D184">
-        <v>8057600000</v>
+        <v>247414000</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -3957,13 +3896,13 @@
         <v>2018</v>
       </c>
       <c r="B185" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C185">
-        <v>1042046</v>
+        <v>861884</v>
       </c>
       <c r="D185">
-        <v>7150000000</v>
+        <v>11534500000</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -3971,13 +3910,13 @@
         <v>2018</v>
       </c>
       <c r="B186" t="s">
-        <v>295</v>
+        <v>148</v>
       </c>
       <c r="C186">
-        <v>927066</v>
+        <v>1397911</v>
       </c>
       <c r="D186">
-        <v>11404851000</v>
+        <v>5188400000</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
@@ -3985,13 +3924,13 @@
         <v>2018</v>
       </c>
       <c r="B187" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C187">
-        <v>1179929</v>
+        <v>1040971</v>
       </c>
       <c r="D187">
-        <v>18890000000</v>
+        <v>1227392000</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -3999,13 +3938,13 @@
         <v>2018</v>
       </c>
       <c r="B188" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
       <c r="C188">
-        <v>766421</v>
+        <v>19584</v>
       </c>
       <c r="D188">
-        <v>8264000000</v>
+        <v>1782648000</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -4013,13 +3952,13 @@
         <v>2018</v>
       </c>
       <c r="B189" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C189">
-        <v>1029199</v>
+        <v>896622</v>
       </c>
       <c r="D189">
-        <v>649385000</v>
+        <v>2764761000</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -4027,13 +3966,13 @@
         <v>2018</v>
       </c>
       <c r="B190" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C190">
-        <v>879101</v>
+        <v>1144519</v>
       </c>
       <c r="D190">
-        <v>1164762000</v>
+        <v>45743000000</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -4041,13 +3980,13 @@
         <v>2018</v>
       </c>
       <c r="B191" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C191">
-        <v>12208</v>
+        <v>354908</v>
       </c>
       <c r="D191">
-        <v>2160153000</v>
+        <v>1775686000</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -4055,13 +3994,13 @@
         <v>2018</v>
       </c>
       <c r="B192" t="s">
-        <v>296</v>
+        <v>153</v>
       </c>
       <c r="C192">
-        <v>1608249</v>
+        <v>38777</v>
       </c>
       <c r="D192">
-        <v>2604000000</v>
+        <v>6319100000</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -4069,13 +4008,13 @@
         <v>2018</v>
       </c>
       <c r="B193" t="s">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="C193">
-        <v>922864</v>
+        <v>1465128</v>
       </c>
       <c r="D193">
-        <v>972410000</v>
+        <v>1109280000</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
@@ -4083,13 +4022,13 @@
         <v>2018</v>
       </c>
       <c r="B194" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C194">
-        <v>1116132</v>
+        <v>1364250</v>
       </c>
       <c r="D194">
-        <v>5880000000</v>
+        <v>881316000</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -4097,13 +4036,13 @@
         <v>2018</v>
       </c>
       <c r="B195" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C195">
-        <v>1005284</v>
+        <v>1364885</v>
       </c>
       <c r="D195">
-        <v>247414000</v>
+        <v>1835300000</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -4111,13 +4050,13 @@
         <v>2018</v>
       </c>
       <c r="B196" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C196">
-        <v>861884</v>
+        <v>1472787</v>
       </c>
       <c r="D196">
-        <v>11534500000</v>
+        <v>5747844000</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -4125,13 +4064,13 @@
         <v>2018</v>
       </c>
       <c r="B197" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C197">
-        <v>1015820</v>
+        <v>1441816</v>
       </c>
       <c r="D197">
-        <v>11534500000</v>
+        <v>154519000</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -4139,13 +4078,13 @@
         <v>2018</v>
       </c>
       <c r="B198" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="C198">
-        <v>355811</v>
+        <v>1530950</v>
       </c>
       <c r="D198">
-        <v>11534500000</v>
+        <v>6257200000</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -4153,13 +4092,13 @@
         <v>2018</v>
       </c>
       <c r="B199" t="s">
-        <v>156</v>
+        <v>280</v>
       </c>
       <c r="C199">
-        <v>1397911</v>
+        <v>1527469</v>
       </c>
       <c r="D199">
-        <v>5188400000</v>
+        <v>6543000000</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -4167,13 +4106,13 @@
         <v>2018</v>
       </c>
       <c r="B200" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C200">
-        <v>1040971</v>
+        <v>936395</v>
       </c>
       <c r="D200">
-        <v>1227392000</v>
+        <v>3094286000</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -4181,13 +4120,13 @@
         <v>2018</v>
       </c>
       <c r="B201" t="s">
-        <v>297</v>
+        <v>159</v>
       </c>
       <c r="C201">
-        <v>19584</v>
+        <v>74260</v>
       </c>
       <c r="D201">
-        <v>1782648000</v>
+        <v>6021800000</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -4195,13 +4134,13 @@
         <v>2018</v>
       </c>
       <c r="B202" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C202">
-        <v>896622</v>
+        <v>1360604</v>
       </c>
       <c r="D202">
-        <v>2764761000</v>
+        <v>696426000</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -4209,13 +4148,13 @@
         <v>2018</v>
       </c>
       <c r="B203" t="s">
-        <v>159</v>
+        <v>281</v>
       </c>
       <c r="C203">
-        <v>1144519</v>
+        <v>1177609</v>
       </c>
       <c r="D203">
-        <v>45743000000</v>
+        <v>1559563000</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -4223,13 +4162,13 @@
         <v>2018</v>
       </c>
       <c r="B204" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C204">
-        <v>354908</v>
+        <v>775158</v>
       </c>
       <c r="D204">
-        <v>1775686000</v>
+        <v>7705500000</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -4237,13 +4176,13 @@
         <v>2018</v>
       </c>
       <c r="B205" t="s">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="C205">
-        <v>885639</v>
+        <v>216228</v>
       </c>
       <c r="D205">
-        <v>1775686000</v>
+        <v>2745100000</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -4254,10 +4193,10 @@
         <v>162</v>
       </c>
       <c r="C206">
-        <v>38777</v>
+        <v>5513</v>
       </c>
       <c r="D206">
-        <v>6319100000</v>
+        <v>11598500000</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -4265,13 +4204,13 @@
         <v>2018</v>
       </c>
       <c r="B207" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="C207">
-        <v>1465128</v>
+        <v>67716</v>
       </c>
       <c r="D207">
-        <v>1109280000</v>
+        <v>4531552000</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -4279,13 +4218,13 @@
         <v>2018</v>
       </c>
       <c r="B208" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C208">
-        <v>1364250</v>
+        <v>1022671</v>
       </c>
       <c r="D208">
-        <v>881316000</v>
+        <v>11821839000</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -4293,13 +4232,13 @@
         <v>2018</v>
       </c>
       <c r="B209" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C209">
-        <v>1364885</v>
+        <v>1616862</v>
       </c>
       <c r="D209">
-        <v>1835300000</v>
+        <v>4696000000</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -4307,13 +4246,13 @@
         <v>2018</v>
       </c>
       <c r="B210" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C210">
-        <v>1472787</v>
+        <v>1597033</v>
       </c>
       <c r="D210">
-        <v>5747844000</v>
+        <v>923928000</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -4321,13 +4260,13 @@
         <v>2018</v>
       </c>
       <c r="B211" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="C211">
-        <v>1441816</v>
+        <v>25232</v>
       </c>
       <c r="D211">
-        <v>154519000</v>
+        <v>475212000</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -4335,13 +4274,13 @@
         <v>2018</v>
       </c>
       <c r="B212" t="s">
-        <v>299</v>
+        <v>167</v>
       </c>
       <c r="C212">
-        <v>1530950</v>
+        <v>898293</v>
       </c>
       <c r="D212">
-        <v>6257200000</v>
+        <v>22095416000</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -4349,13 +4288,13 @@
         <v>2018</v>
       </c>
       <c r="B213" t="s">
-        <v>300</v>
+        <v>168</v>
       </c>
       <c r="C213">
-        <v>1527469</v>
+        <v>1037038</v>
       </c>
       <c r="D213">
-        <v>6543000000</v>
+        <v>6182300000</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -4363,13 +4302,13 @@
         <v>2018</v>
       </c>
       <c r="B214" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="C214">
-        <v>936395</v>
+        <v>726958</v>
       </c>
       <c r="D214">
-        <v>3094286000</v>
+        <v>8391124000</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -4377,13 +4316,13 @@
         <v>2018</v>
       </c>
       <c r="B215" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C215">
-        <v>74260</v>
+        <v>91767</v>
       </c>
       <c r="D215">
-        <v>6021800000</v>
+        <v>5036650000</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
@@ -4391,13 +4330,13 @@
         <v>2018</v>
       </c>
       <c r="B216" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C216">
-        <v>1360604</v>
+        <v>1012100</v>
       </c>
       <c r="D216">
-        <v>696426000</v>
+        <v>4732700000</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -4405,13 +4344,13 @@
         <v>2018</v>
       </c>
       <c r="B217" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="C217">
-        <v>1177609</v>
+        <v>1378992</v>
       </c>
       <c r="D217">
-        <v>1559563000</v>
+        <v>2054000000</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -4419,13 +4358,13 @@
         <v>2018</v>
       </c>
       <c r="B218" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C218">
-        <v>775158</v>
+        <v>1177394</v>
       </c>
       <c r="D218">
-        <v>7705500000</v>
+        <v>20053764000</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -4433,13 +4372,13 @@
         <v>2018</v>
       </c>
       <c r="B219" t="s">
-        <v>302</v>
+        <v>172</v>
       </c>
       <c r="C219">
-        <v>216228</v>
+        <v>105016</v>
       </c>
       <c r="D219">
-        <v>2745100000</v>
+        <v>4546653000</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -4447,13 +4386,13 @@
         <v>2018</v>
       </c>
       <c r="B220" t="s">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="C220">
-        <v>5513</v>
+        <v>1482512</v>
       </c>
       <c r="D220">
-        <v>11598500000</v>
+        <v>728418000</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -4461,13 +4400,13 @@
         <v>2018</v>
       </c>
       <c r="B221" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C221">
-        <v>67716</v>
+        <v>1002517</v>
       </c>
       <c r="D221">
-        <v>4531552000</v>
+        <v>2051661000</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -4475,13 +4414,13 @@
         <v>2018</v>
       </c>
       <c r="B222" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C222">
-        <v>1022671</v>
+        <v>1045450</v>
       </c>
       <c r="D222">
-        <v>11821839000</v>
+        <v>700731000</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -4489,13 +4428,13 @@
         <v>2018</v>
       </c>
       <c r="B223" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C223">
-        <v>1616862</v>
+        <v>1636519</v>
       </c>
       <c r="D223">
-        <v>4696000000</v>
+        <v>1559095000</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -4503,13 +4442,13 @@
         <v>2018</v>
       </c>
       <c r="B224" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="C224">
-        <v>1597033</v>
+        <v>84839</v>
       </c>
       <c r="D224">
-        <v>923928000</v>
+        <v>1821565000</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -4517,13 +4456,13 @@
         <v>2018</v>
       </c>
       <c r="B225" t="s">
-        <v>303</v>
+        <v>176</v>
       </c>
       <c r="C225">
-        <v>25232</v>
+        <v>944695</v>
       </c>
       <c r="D225">
-        <v>475212000</v>
+        <v>4494300000</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -4531,13 +4470,13 @@
         <v>2018</v>
       </c>
       <c r="B226" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C226">
-        <v>898293</v>
+        <v>1214816</v>
       </c>
       <c r="D226">
-        <v>22095416000</v>
+        <v>5090406000</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -4545,13 +4484,13 @@
         <v>2018</v>
       </c>
       <c r="B227" t="s">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="C227">
-        <v>1037038</v>
+        <v>793952</v>
       </c>
       <c r="D227">
-        <v>6182300000</v>
+        <v>5716875000</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -4559,13 +4498,13 @@
         <v>2018</v>
       </c>
       <c r="B228" t="s">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="C228">
-        <v>726958</v>
+        <v>794367</v>
       </c>
       <c r="D228">
-        <v>8391124000</v>
+        <v>24837000000</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -4573,13 +4512,13 @@
         <v>2018</v>
       </c>
       <c r="B229" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C229">
-        <v>91767</v>
+        <v>1359841</v>
       </c>
       <c r="D229">
-        <v>5036650000</v>
+        <v>1768301000</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -4587,13 +4526,13 @@
         <v>2018</v>
       </c>
       <c r="B230" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C230">
-        <v>1012100</v>
+        <v>354707</v>
       </c>
       <c r="D230">
-        <v>4732700000</v>
+        <v>2860849000</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -4601,13 +4540,13 @@
         <v>2018</v>
       </c>
       <c r="B231" t="s">
-        <v>305</v>
+        <v>181</v>
       </c>
       <c r="C231">
-        <v>1378992</v>
+        <v>1518832</v>
       </c>
       <c r="D231">
-        <v>2054000000</v>
+        <v>1022000000</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -4615,13 +4554,13 @@
         <v>2018</v>
       </c>
       <c r="B232" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C232">
-        <v>1177394</v>
+        <v>1594466</v>
       </c>
       <c r="D232">
-        <v>20053764000</v>
+        <v>1826431000</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -4629,13 +4568,13 @@
         <v>2018</v>
       </c>
       <c r="B233" t="s">
-        <v>181</v>
+        <v>289</v>
       </c>
       <c r="C233">
-        <v>105016</v>
+        <v>1475922</v>
       </c>
       <c r="D233">
-        <v>4546653000</v>
+        <v>1899843000</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -4643,13 +4582,13 @@
         <v>2018</v>
       </c>
       <c r="B234" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C234">
-        <v>1482512</v>
+        <v>36966</v>
       </c>
       <c r="D234">
-        <v>728418000</v>
+        <v>1936105000</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -4657,13 +4596,13 @@
         <v>2018</v>
       </c>
       <c r="B235" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C235">
-        <v>1002517</v>
+        <v>14930</v>
       </c>
       <c r="D235">
-        <v>2051661000</v>
+        <v>5159200000</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -4671,13 +4610,13 @@
         <v>2018</v>
       </c>
       <c r="B236" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C236">
-        <v>1321732</v>
+        <v>876437</v>
       </c>
       <c r="D236">
-        <v>2051661000</v>
+        <v>1123848000</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -4685,13 +4624,13 @@
         <v>2018</v>
       </c>
       <c r="B237" t="s">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="C237">
-        <v>701985</v>
+        <v>1498828</v>
       </c>
       <c r="D237">
-        <v>2051661000</v>
+        <v>1064537000</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -4699,13 +4638,13 @@
         <v>2018</v>
       </c>
       <c r="B238" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C238">
-        <v>1045450</v>
+        <v>46619</v>
       </c>
       <c r="D238">
-        <v>700731000</v>
+        <v>1777721000</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -4713,13 +4652,13 @@
         <v>2018</v>
       </c>
       <c r="B239" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C239">
-        <v>1636519</v>
+        <v>1487712</v>
       </c>
       <c r="D239">
-        <v>1559095000</v>
+        <v>1679702000</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -4727,13 +4666,13 @@
         <v>2018</v>
       </c>
       <c r="B240" t="s">
-        <v>307</v>
+        <v>188</v>
       </c>
       <c r="C240">
-        <v>84839</v>
+        <v>1307954</v>
       </c>
       <c r="D240">
-        <v>1821565000</v>
+        <v>9379000000</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -4741,13 +4680,13 @@
         <v>2018</v>
       </c>
       <c r="B241" t="s">
-        <v>187</v>
+        <v>291</v>
       </c>
       <c r="C241">
-        <v>944695</v>
+        <v>1408075</v>
       </c>
       <c r="D241">
-        <v>4494300000</v>
+        <v>6023000000</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -4755,13 +4694,13 @@
         <v>2018</v>
       </c>
       <c r="B242" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C242">
-        <v>1214816</v>
+        <v>46765</v>
       </c>
       <c r="D242">
-        <v>5090406000</v>
+        <v>2487268000</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -4769,13 +4708,13 @@
         <v>2018</v>
       </c>
       <c r="B243" t="s">
-        <v>308</v>
+        <v>190</v>
       </c>
       <c r="C243">
-        <v>793952</v>
+        <v>1685040</v>
       </c>
       <c r="D243">
-        <v>5716875000</v>
+        <v>4026000000</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -4783,13 +4722,13 @@
         <v>2018</v>
       </c>
       <c r="B244" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C244">
-        <v>794367</v>
+        <v>885550</v>
       </c>
       <c r="D244">
-        <v>24837000000</v>
+        <v>1285800000</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -4797,13 +4736,13 @@
         <v>2018</v>
       </c>
       <c r="B245" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C245">
-        <v>1359841</v>
+        <v>1308547</v>
       </c>
       <c r="D245">
-        <v>1768301000</v>
+        <v>1171924000</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -4811,13 +4750,13 @@
         <v>2018</v>
       </c>
       <c r="B246" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C246">
-        <v>944314</v>
+        <v>25445</v>
       </c>
       <c r="D246">
-        <v>1768301000</v>
+        <v>3345500000</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -4825,13 +4764,13 @@
         <v>2018</v>
       </c>
       <c r="B247" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C247">
-        <v>1308606</v>
+        <v>853816</v>
       </c>
       <c r="D247">
-        <v>1768301000</v>
+        <v>4615144000</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -4839,13 +4778,13 @@
         <v>2018</v>
       </c>
       <c r="B248" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C248">
-        <v>354707</v>
+        <v>1311370</v>
       </c>
       <c r="D248">
-        <v>2860849000</v>
+        <v>2884833000</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -4853,13 +4792,13 @@
         <v>2018</v>
       </c>
       <c r="B249" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C249">
-        <v>1518832</v>
+        <v>1273813</v>
       </c>
       <c r="D249">
-        <v>1022000000</v>
+        <v>1002000000</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -4867,13 +4806,13 @@
         <v>2018</v>
       </c>
       <c r="B250" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C250">
-        <v>1594466</v>
+        <v>1490892</v>
       </c>
       <c r="D250">
-        <v>1826431000</v>
+        <v>544392000</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -4881,13 +4820,13 @@
         <v>2018</v>
       </c>
       <c r="B251" t="s">
-        <v>309</v>
+        <v>198</v>
       </c>
       <c r="C251">
-        <v>1475922</v>
+        <v>850209</v>
       </c>
       <c r="D251">
-        <v>1899843000</v>
+        <v>7782000000</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -4895,13 +4834,13 @@
         <v>2018</v>
       </c>
       <c r="B252" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C252">
-        <v>36966</v>
+        <v>1579877</v>
       </c>
       <c r="D252">
-        <v>1936105000</v>
+        <v>452400000</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -4909,13 +4848,13 @@
         <v>2018</v>
       </c>
       <c r="B253" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C253">
-        <v>14930</v>
+        <v>1274494</v>
       </c>
       <c r="D253">
-        <v>5159200000</v>
+        <v>2244044000</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -4923,13 +4862,13 @@
         <v>2018</v>
       </c>
       <c r="B254" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C254">
-        <v>876437</v>
+        <v>1101215</v>
       </c>
       <c r="D254">
-        <v>1123848000</v>
+        <v>7791200000</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -4937,13 +4876,13 @@
         <v>2018</v>
       </c>
       <c r="B255" t="s">
-        <v>310</v>
+        <v>202</v>
       </c>
       <c r="C255">
-        <v>1498828</v>
+        <v>30697</v>
       </c>
       <c r="D255">
-        <v>1064537000</v>
+        <v>1589936000</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -4951,13 +4890,13 @@
         <v>2018</v>
       </c>
       <c r="B256" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="C256">
-        <v>46619</v>
+        <v>1690820</v>
       </c>
       <c r="D256">
-        <v>1777721000</v>
+        <v>1955467000</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -4965,13 +4904,13 @@
         <v>2018</v>
       </c>
       <c r="B257" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C257">
-        <v>1487712</v>
+        <v>39911</v>
       </c>
       <c r="D257">
-        <v>1679702000</v>
+        <v>16580000000</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -4979,13 +4918,13 @@
         <v>2018</v>
       </c>
       <c r="B258" t="s">
-        <v>201</v>
+        <v>293</v>
       </c>
       <c r="C258">
-        <v>1307954</v>
+        <v>803649</v>
       </c>
       <c r="D258">
-        <v>9379000000</v>
+        <v>197022000</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -4993,13 +4932,13 @@
         <v>2018</v>
       </c>
       <c r="B259" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C259">
-        <v>1408075</v>
+        <v>36047</v>
       </c>
       <c r="D259">
-        <v>6023000000</v>
+        <v>1788378000</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -5007,13 +4946,13 @@
         <v>2018</v>
       </c>
       <c r="B260" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C260">
-        <v>46765</v>
+        <v>883984</v>
       </c>
       <c r="D260">
-        <v>2487268000</v>
+        <v>1400040000</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -5021,13 +4960,13 @@
         <v>2018</v>
       </c>
       <c r="B261" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C261">
-        <v>1685040</v>
+        <v>8858</v>
       </c>
       <c r="D261">
-        <v>4026000000</v>
+        <v>19036892000</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -5035,13 +4974,13 @@
         <v>2018</v>
       </c>
       <c r="B262" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c r="C262">
-        <v>885550</v>
+        <v>828916</v>
       </c>
       <c r="D262">
-        <v>1285800000</v>
+        <v>531147000</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -5049,13 +4988,13 @@
         <v>2018</v>
       </c>
       <c r="B263" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C263">
-        <v>1308547</v>
+        <v>21510</v>
       </c>
       <c r="D263">
-        <v>1171924000</v>
+        <v>1902573000</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -5063,13 +5002,13 @@
         <v>2018</v>
       </c>
       <c r="B264" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C264">
-        <v>25445</v>
+        <v>1045309</v>
       </c>
       <c r="D264">
-        <v>3345500000</v>
+        <v>1932100000</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -5077,13 +5016,13 @@
         <v>2018</v>
       </c>
       <c r="B265" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C265">
-        <v>853816</v>
+        <v>1420800</v>
       </c>
       <c r="D265">
-        <v>4615144000</v>
+        <v>3666812000</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -5091,13 +5030,13 @@
         <v>2018</v>
       </c>
       <c r="B266" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C266">
-        <v>1311370</v>
+        <v>704051</v>
       </c>
       <c r="D266">
-        <v>2884833000</v>
+        <v>3140322000</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -5105,13 +5044,13 @@
         <v>2018</v>
       </c>
       <c r="B267" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C267">
-        <v>1273813</v>
+        <v>860546</v>
       </c>
       <c r="D267">
-        <v>1002000000</v>
+        <v>578112000</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -5119,13 +5058,13 @@
         <v>2018</v>
       </c>
       <c r="B268" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C268">
-        <v>1490892</v>
+        <v>912242</v>
       </c>
       <c r="D268">
-        <v>544392000</v>
+        <v>960351000</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -5133,13 +5072,13 @@
         <v>2018</v>
       </c>
       <c r="B269" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="C269">
-        <v>850209</v>
+        <v>1289790</v>
       </c>
       <c r="D269">
-        <v>7782000000</v>
+        <v>1761533000</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -5150,10 +5089,10 @@
         <v>212</v>
       </c>
       <c r="C270">
-        <v>1579877</v>
+        <v>4457</v>
       </c>
       <c r="D270">
-        <v>452400000</v>
+        <v>3601114000</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -5164,10 +5103,10 @@
         <v>213</v>
       </c>
       <c r="C271">
-        <v>1274494</v>
+        <v>1003078</v>
       </c>
       <c r="D271">
-        <v>2244044000</v>
+        <v>3203878000</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -5178,10 +5117,10 @@
         <v>214</v>
       </c>
       <c r="C272">
-        <v>1101215</v>
+        <v>1448056</v>
       </c>
       <c r="D272">
-        <v>7791200000</v>
+        <v>355058000</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -5192,10 +5131,10 @@
         <v>215</v>
       </c>
       <c r="C273">
-        <v>30697</v>
+        <v>1289419</v>
       </c>
       <c r="D273">
-        <v>1589936000</v>
+        <v>1019900000</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -5203,13 +5142,13 @@
         <v>2018</v>
       </c>
       <c r="B274" t="s">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="C274">
-        <v>1690820</v>
+        <v>1360901</v>
       </c>
       <c r="D274">
-        <v>1955467000</v>
+        <v>2082476000</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -5217,13 +5156,13 @@
         <v>2018</v>
       </c>
       <c r="B275" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C275">
-        <v>39911</v>
+        <v>1634997</v>
       </c>
       <c r="D275">
-        <v>16580000000</v>
+        <v>6478000000</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -5231,13 +5170,13 @@
         <v>2018</v>
       </c>
       <c r="B276" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C276">
-        <v>1409493</v>
+        <v>1050797</v>
       </c>
       <c r="D276">
-        <v>16580000000</v>
+        <v>2802326000</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -5245,13 +5184,13 @@
         <v>2018</v>
       </c>
       <c r="B277" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C277">
-        <v>803649</v>
+        <v>790816</v>
       </c>
       <c r="D277">
-        <v>197022000</v>
+        <v>544345000</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -5259,13 +5198,13 @@
         <v>2018</v>
       </c>
       <c r="B278" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C278">
-        <v>36047</v>
+        <v>1395942</v>
       </c>
       <c r="D278">
-        <v>1788378000</v>
+        <v>929000000</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -5273,13 +5212,13 @@
         <v>2018</v>
       </c>
       <c r="B279" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C279">
-        <v>883984</v>
+        <v>1124198</v>
       </c>
       <c r="D279">
-        <v>1400040000</v>
+        <v>19166599000</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
@@ -5287,13 +5226,13 @@
         <v>2018</v>
       </c>
       <c r="B280" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C280">
-        <v>8858</v>
+        <v>74303</v>
       </c>
       <c r="D280">
-        <v>19036892000</v>
+        <v>1635000000</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -5301,13 +5240,13 @@
         <v>2018</v>
       </c>
       <c r="B281" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C281">
-        <v>828916</v>
+        <v>101830</v>
       </c>
       <c r="D281">
-        <v>531147000</v>
+        <v>32406000000</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -5315,13 +5254,13 @@
         <v>2018</v>
       </c>
       <c r="B282" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C282">
-        <v>21510</v>
+        <v>1320695</v>
       </c>
       <c r="D282">
-        <v>1902573000</v>
+        <v>5812100000</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -5329,13 +5268,13 @@
         <v>2018</v>
       </c>
       <c r="B283" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C283">
-        <v>1045309</v>
+        <v>1252849</v>
       </c>
       <c r="D283">
-        <v>1932100000</v>
+        <v>75523000</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -5343,13 +5282,13 @@
         <v>2018</v>
       </c>
       <c r="B284" t="s">
-        <v>317</v>
+        <v>222</v>
       </c>
       <c r="C284">
-        <v>776867</v>
+        <v>16040</v>
       </c>
       <c r="D284">
-        <v>1932100000</v>
+        <v>3242000000</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -5357,13 +5296,13 @@
         <v>2018</v>
       </c>
       <c r="B285" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="C285">
-        <v>1046311</v>
+        <v>350698</v>
       </c>
       <c r="D285">
-        <v>1932100000</v>
+        <v>21412800000</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -5371,13 +5310,13 @@
         <v>2018</v>
       </c>
       <c r="B286" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C286">
-        <v>1420800</v>
+        <v>104889</v>
       </c>
       <c r="D286">
-        <v>3666812000</v>
+        <v>689087000</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -5385,13 +5324,13 @@
         <v>2018</v>
       </c>
       <c r="B287" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C287">
-        <v>704051</v>
+        <v>1262823</v>
       </c>
       <c r="D287">
-        <v>3140322000</v>
+        <v>8635000000</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -5399,13 +5338,13 @@
         <v>2018</v>
       </c>
       <c r="B288" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C288">
-        <v>860546</v>
+        <v>99780</v>
       </c>
       <c r="D288">
-        <v>578112000</v>
+        <v>2509100000</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -5413,13 +5352,13 @@
         <v>2018</v>
       </c>
       <c r="B289" t="s">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="C289">
-        <v>912242</v>
+        <v>1091907</v>
       </c>
       <c r="D289">
-        <v>960351000</v>
+        <v>930160000</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
@@ -5427,13 +5366,13 @@
         <v>2018</v>
       </c>
       <c r="B290" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="C290">
-        <v>1289790</v>
+        <v>929008</v>
       </c>
       <c r="D290">
-        <v>1761533000</v>
+        <v>2011447000</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -5441,13 +5380,13 @@
         <v>2018</v>
       </c>
       <c r="B291" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="C291">
-        <v>1345105</v>
+        <v>1541401</v>
       </c>
       <c r="D291">
-        <v>1761533000</v>
+        <v>199309000</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -5455,13 +5394,13 @@
         <v>2018</v>
       </c>
       <c r="B292" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C292">
-        <v>4457</v>
+        <v>910406</v>
       </c>
       <c r="D292">
-        <v>3601114000</v>
+        <v>2457769000</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -5469,13 +5408,13 @@
         <v>2018</v>
       </c>
       <c r="B293" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="C293">
-        <v>1003078</v>
+        <v>1577916</v>
       </c>
       <c r="D293">
-        <v>3203878000</v>
+        <v>1661256000</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -5483,13 +5422,13 @@
         <v>2018</v>
       </c>
       <c r="B294" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C294">
-        <v>1448056</v>
+        <v>912752</v>
       </c>
       <c r="D294">
-        <v>355058000</v>
+        <v>3055081000</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -5497,13 +5436,13 @@
         <v>2018</v>
       </c>
       <c r="B295" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C295">
-        <v>1289419</v>
+        <v>912615</v>
       </c>
       <c r="D295">
-        <v>1019900000</v>
+        <v>3616014000</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -5511,13 +5450,13 @@
         <v>2018</v>
       </c>
       <c r="B296" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C296">
-        <v>1360901</v>
+        <v>1094831</v>
       </c>
       <c r="D296">
-        <v>2082476000</v>
+        <v>1937810000</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -5525,13 +5464,13 @@
         <v>2018</v>
       </c>
       <c r="B297" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C297">
-        <v>1634997</v>
+        <v>1163302</v>
       </c>
       <c r="D297">
-        <v>6478000000</v>
+        <v>12758000000</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -5539,13 +5478,13 @@
         <v>2018</v>
       </c>
       <c r="B298" t="s">
-        <v>320</v>
+        <v>233</v>
       </c>
       <c r="C298">
-        <v>1050797</v>
+        <v>21175</v>
       </c>
       <c r="D298">
-        <v>2802326000</v>
+        <v>10134000000</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -5553,13 +5492,13 @@
         <v>2018</v>
       </c>
       <c r="B299" t="s">
-        <v>321</v>
+        <v>234</v>
       </c>
       <c r="C299">
-        <v>790816</v>
+        <v>904163</v>
       </c>
       <c r="D299">
-        <v>544345000</v>
+        <v>3326382000</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -5567,13 +5506,13 @@
         <v>2018</v>
       </c>
       <c r="B300" t="s">
-        <v>322</v>
+        <v>235</v>
       </c>
       <c r="C300">
-        <v>1674168</v>
+        <v>895126</v>
       </c>
       <c r="D300">
-        <v>544345000</v>
+        <v>10231000000</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -5581,352 +5520,19 @@
         <v>2018</v>
       </c>
       <c r="B301" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="C301">
-        <v>1395942</v>
+        <v>315852</v>
       </c>
       <c r="D301">
-        <v>929000000</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A302">
-        <v>2018</v>
-      </c>
-      <c r="B302" t="s">
-        <v>232</v>
-      </c>
-      <c r="C302">
-        <v>1124198</v>
-      </c>
-      <c r="D302">
-        <v>19166599000</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A303">
-        <v>2018</v>
-      </c>
-      <c r="B303" t="s">
-        <v>233</v>
-      </c>
-      <c r="C303">
-        <v>74303</v>
-      </c>
-      <c r="D303">
-        <v>1635000000</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A304">
-        <v>2018</v>
-      </c>
-      <c r="B304" t="s">
-        <v>324</v>
-      </c>
-      <c r="C304">
-        <v>101830</v>
-      </c>
-      <c r="D304">
-        <v>32406000000</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A305">
-        <v>2018</v>
-      </c>
-      <c r="B305" t="s">
-        <v>234</v>
-      </c>
-      <c r="C305">
-        <v>1320695</v>
-      </c>
-      <c r="D305">
-        <v>5812100000</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A306">
-        <v>2018</v>
-      </c>
-      <c r="B306" t="s">
-        <v>235</v>
-      </c>
-      <c r="C306">
-        <v>1252849</v>
-      </c>
-      <c r="D306">
-        <v>75523000</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A307">
-        <v>2018</v>
-      </c>
-      <c r="B307" t="s">
-        <v>236</v>
-      </c>
-      <c r="C307">
-        <v>16040</v>
-      </c>
-      <c r="D307">
-        <v>3242000000</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A308">
-        <v>2018</v>
-      </c>
-      <c r="B308" t="s">
-        <v>325</v>
-      </c>
-      <c r="C308">
-        <v>350698</v>
-      </c>
-      <c r="D308">
-        <v>21412800000</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A309">
-        <v>2018</v>
-      </c>
-      <c r="B309" t="s">
-        <v>237</v>
-      </c>
-      <c r="C309">
-        <v>104889</v>
-      </c>
-      <c r="D309">
-        <v>689087000</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A310">
-        <v>2018</v>
-      </c>
-      <c r="B310" t="s">
-        <v>238</v>
-      </c>
-      <c r="C310">
-        <v>1262823</v>
-      </c>
-      <c r="D310">
-        <v>8635000000</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A311">
-        <v>2018</v>
-      </c>
-      <c r="B311" t="s">
-        <v>239</v>
-      </c>
-      <c r="C311">
-        <v>99780</v>
-      </c>
-      <c r="D311">
-        <v>2509100000</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A312">
-        <v>2018</v>
-      </c>
-      <c r="B312" t="s">
-        <v>326</v>
-      </c>
-      <c r="C312">
-        <v>1091907</v>
-      </c>
-      <c r="D312">
-        <v>930160000</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A313">
-        <v>2018</v>
-      </c>
-      <c r="B313" t="s">
-        <v>240</v>
-      </c>
-      <c r="C313">
-        <v>929008</v>
-      </c>
-      <c r="D313">
-        <v>2011447000</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A314">
-        <v>2018</v>
-      </c>
-      <c r="B314" t="s">
-        <v>241</v>
-      </c>
-      <c r="C314">
-        <v>1541401</v>
-      </c>
-      <c r="D314">
-        <v>199309000</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A315">
-        <v>2018</v>
-      </c>
-      <c r="B315" t="s">
-        <v>242</v>
-      </c>
-      <c r="C315">
-        <v>910406</v>
-      </c>
-      <c r="D315">
-        <v>2457769000</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A316">
-        <v>2018</v>
-      </c>
-      <c r="B316" t="s">
-        <v>327</v>
-      </c>
-      <c r="C316">
-        <v>1577916</v>
-      </c>
-      <c r="D316">
-        <v>1661256000</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A317">
-        <v>2018</v>
-      </c>
-      <c r="B317" t="s">
-        <v>243</v>
-      </c>
-      <c r="C317">
-        <v>912752</v>
-      </c>
-      <c r="D317">
-        <v>3055081000</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A318">
-        <v>2018</v>
-      </c>
-      <c r="B318" t="s">
-        <v>244</v>
-      </c>
-      <c r="C318">
-        <v>912615</v>
-      </c>
-      <c r="D318">
-        <v>3616014000</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A319">
-        <v>2018</v>
-      </c>
-      <c r="B319" t="s">
-        <v>245</v>
-      </c>
-      <c r="C319">
-        <v>1094831</v>
-      </c>
-      <c r="D319">
-        <v>1937810000</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A320">
-        <v>2018</v>
-      </c>
-      <c r="B320" t="s">
-        <v>246</v>
-      </c>
-      <c r="C320">
-        <v>1019849</v>
-      </c>
-      <c r="D320">
-        <v>1937810000</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A321">
-        <v>2018</v>
-      </c>
-      <c r="B321" t="s">
-        <v>247</v>
-      </c>
-      <c r="C321">
-        <v>1163302</v>
-      </c>
-      <c r="D321">
-        <v>12758000000</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A322">
-        <v>2018</v>
-      </c>
-      <c r="B322" t="s">
-        <v>248</v>
-      </c>
-      <c r="C322">
-        <v>21175</v>
-      </c>
-      <c r="D322">
-        <v>10134000000</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A323">
-        <v>2018</v>
-      </c>
-      <c r="B323" t="s">
-        <v>249</v>
-      </c>
-      <c r="C323">
-        <v>904163</v>
-      </c>
-      <c r="D323">
-        <v>3326382000</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A324">
-        <v>2018</v>
-      </c>
-      <c r="B324" t="s">
-        <v>250</v>
-      </c>
-      <c r="C324">
-        <v>895126</v>
-      </c>
-      <c r="D324">
-        <v>10231000000</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A325">
-        <v>2018</v>
-      </c>
-      <c r="B325" t="s">
-        <v>251</v>
-      </c>
-      <c r="C325">
-        <v>315852</v>
-      </c>
-      <c r="D325">
         <v>1072637000</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>